--- a/medicine/Enfance/Liste_des_œuvres_d'Enid_Blyton/Liste_des_œuvres_d'Enid_Blyton.xlsx
+++ b/medicine/Enfance/Liste_des_œuvres_d'Enid_Blyton/Liste_des_œuvres_d'Enid_Blyton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste des œuvres d'Enid Blyton (1897-1968), romancière anglaise pour enfants surtout connue pour Oui-Oui, Le Club des cinq et Le Clan des sept.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Œuvres traduites en français, classées par série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Note : Pour chaque série, la première date est celle de la première édition française.
-Belles Histoires
-Cette série a d'abord été publiée chez Hachette dans la collection « Nouvelle Bibliothèque rose ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Pour chaque série, la première date est celle de la première édition française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Belles Histoires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette série a d'abord été publiée chez Hachette dans la collection « Nouvelle Bibliothèque rose ».
 1961 : Fido, chien de berger (Shadow, the Sheep-Dog, 1942).
 1963 : Bonjour les amis ! (The Good Morning Book, 1949).
 1964 : Histoires des quatre saisons (Tales of Green Hedges, 1946).
@@ -539,14 +588,82 @@
 1979 : Histoires des trois loups de mer (Jolly Story Book, 1944).
 1980 : Histoires de la ruche à miel
 1980 : Histoires du sac à malice (Enid Blyton’s Gay Story Book).
-1982 : Histoires de la boîte de couleurs
-Série Betty
-La série s'intitule The Naughtiest Girl en version originale. Elle a commencé à être rééditée en 2015 sous le titre Betty la chipie.
+1982 : Histoires de la boîte de couleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Betty</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La série s'intitule The Naughtiest Girl en version originale. Elle a commencé à être rééditée en 2015 sous le titre Betty la chipie.
 1971 : Betty la mauvaise tête (The Naughtiest Girl in the School, 1940); (nouveau titre français en 2015 : Betty la chipie : Vive la rentrée !).
 1972 : Betty s'en va-t-en guerre (The Naughtiest Girl Again, 1942); (nouveau titre français en 2015 : Betty la chipie : Fous Rires et Mauvais Coups !).
-1973 : Hourra pour Betty ! (The Naughtiest Girl is a Monitor, 1945); (nouveau titre français en 2016 : Betty la chipie : De l'orage dans l'air).
-Série Boum
-La série Boum (Bom) vise un très jeune public. Elle comprend huit titres narrant les aventures et tribulations d'un petit tambour (au sens de « joueur de tambour ») nommé Boum.
+1973 : Hourra pour Betty ! (The Naughtiest Girl is a Monitor, 1945); (nouveau titre français en 2016 : Betty la chipie : De l'orage dans l'air).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Boum</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La série Boum (Bom) vise un très jeune public. Elle comprend huit titres narrant les aventures et tribulations d'un petit tambour (au sens de « joueur de tambour ») nommé Boum.
 1972 : Boum le petit tambour (Bom the Little Toy Drummer, 1956).
 1972 : Boum, sa grosse caisse et son petit chien (Bom and his Magic Drumstick, 1957).
 1973 : Boum et les Trois Voleurs (Bom Goes Adventuring, 1958).
@@ -554,9 +671,43 @@
 1974 : Boum et l’Arc en ciel (Bom and the Rainbow, 1959).
 1975 : Boum et le Clown (Bom and the Clown, 1959).
 1976 : Boum dans la ville enchantée (Bom Goes to Magic Town, 1960).
-1977 : Boum au bord de la mer (Bom at the Seaside, 1961).
-Série Le Clan des sept
-La série Le Clan des sept (The Secret Seven) comporte quinze histoires rédigées entre 1949 et 1963, et publiées en France de 1958 à 1974. Elle raconte les aventures d’un groupe de sept enfants et de leur chien, Moustique. La série est publiée dans la collection « Bibliothèque rose ».
+1977 : Boum au bord de la mer (Bom at the Seaside, 1961).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Le Clan des sept</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La série Le Clan des sept (The Secret Seven) comporte quinze histoires rédigées entre 1949 et 1963, et publiées en France de 1958 à 1974. Elle raconte les aventures d’un groupe de sept enfants et de leur chien, Moustique. La série est publiée dans la collection « Bibliothèque rose ».
 1958 : Bien joué, clan des sept (Well Done Secret Seven, 1951).
 1959 : Un exploit du clan des sept (Go Ahead Secret Seven, 1953).
 1960 : Le Carnaval du clan des sept (Good Work Secret Seven, 1954).
@@ -571,9 +722,43 @@
 1969 : La Médaille du clan des sept (Look Out Secret Seven, 1962).
 1969 : Le Clan des sept et les Bonshommes de neige (The Secret Seven, 1949).
 1970 : Le Feu de joie du clan des sept (Secret Seven Fireworks, 1959).
-1974 : Le Clan des sept à la grange aux loups (Secret Seven on the Trail, 1952).
-Série Le Club des cinq
-La série Le Club des cinq (The Famous Five) comprend vingt et une histoires, publiées entre 1942 et 1963, et en France de 1955 à 1967. Elle relate les aventures d’un groupe de quatre enfants (Claude, Annie, Mick et François, dans la version française) et de leur chien Dagobert. C’est Claude Voilier qui rédige, depuis 1971, de nouvelles aventures du Club des cinq. L’ensemble a été publié en France dans la « Bibliothèque rose ».
+1974 : Le Clan des sept à la grange aux loups (Secret Seven on the Trail, 1952).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Le Club des cinq</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série Le Club des cinq (The Famous Five) comprend vingt et une histoires, publiées entre 1942 et 1963, et en France de 1955 à 1967. Elle relate les aventures d’un groupe de quatre enfants (Claude, Annie, Mick et François, dans la version française) et de leur chien Dagobert. C’est Claude Voilier qui rédige, depuis 1971, de nouvelles aventures du Club des cinq. L’ensemble a été publié en France dans la « Bibliothèque rose ».
 1955 : Le Club des cinq (Five Go Adventuring Again, 1943) ; (nouveau titre français en 2006 : Le Club des cinq et le Passage secret).
 1955 : Le club des cinq contre-attaque (Five Run Away Together, 1944).
 1956 : Le Club des cinq en vacances (Five Go to Smuggler's Top, 1945).
@@ -596,37 +781,208 @@
 1966 : Le Club des cinq et le Vieux Puits (Five Have a Mystery to Solve, 1962) ; (nouveau titre français en 2010 : Le Club des cinq et le Secret du vieux puits).
 1967 : Le Club des cinq en embuscade (Five Are Together Again, 1963).
 Les romans ont été également publiés dans la collection « Nouvelle Collection Ségur » (nombreux titres), dans la collection « Idéal-Bibliothèque » (Le Club des cinq se distingue et Le Club des cinq en péril), trois titres ont été publiés en grand format dans la collection « La Galaxie »(Le Club des cinq, Le Club des cinq en embuscade et Le Club des cinq et le coffre aux merveilles) ou dans la collection « Vermeille » (Le Club des cinq, Le Club des cinq et le trésor de l’île, Le Club des cinq en vacances, Le Club des cinq aux sports d'hiver, Le Club des cinq en embuscade et Le Club des cinq et les gitans). Plusieurs romans ont également été publiés chez ODEJ dans la « collection J » (3 titres) et « Junior de poche » (2 titres).
-Série Deux jumelles
-La série Deux jumelles (St. Clare's) compte six romans publiés entre 1941 et 1945, et en France de 1964 à 1965 dans la collection « Idéal-Bibliothèque » chez Hachette. Elle raconte la vie quotidienne d’un pensionnat de jeunes filles. Elle a commencé à être rééditée en 2014 sous le titre Les Jumelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Deux jumelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La série Deux jumelles (St. Clare's) compte six romans publiés entre 1941 et 1945, et en France de 1964 à 1965 dans la collection « Idéal-Bibliothèque » chez Hachette. Elle raconte la vie quotidienne d’un pensionnat de jeunes filles. Elle a commencé à être rééditée en 2014 sous le titre Les Jumelles.
 1964 : Deux jumelles en pension (The Twins at St. Clare's, 1941) ; (nouveau titre français en 2014 : Les Jumelles à Saint-Clair).
 1964 : Deux jumelles et trois camarades (The O'Sullivan Twins, 1942) ; (nouveau titre français en 2014 : Les jumelles ne sont pas des anges).
 1965 : Deux jumelles et une écuyère (Summer Term at St. Clare's, 1943) ; (nouveau titre français en 2014 : Les Jumelles et la Mystérieuse Cavalière).
 1965 : Hourra pour les jumelles (Second Form at St. Clare's, 1944) ; (nouveau titre français en 2015 : Les jumelles font leur numéro).
 1966 : Claudine et les Deux Jumelles (Claudine at St.Clare's, 1944) ; (nouveau titre français en 2015 : Les Talents cachés des jumelles).
-1966 : Deux Jumelles et Deux Somnambules (Fifth Formers at St. Clare's, 1945); (nouveau titre français en 2016 : Les jumelles mènent le jeu).
-La Famille Tant-Mieux
-La série La Famille Tant-Mieux (The Caravan Family) est constituée de six histoires rédigées entre 1945 et 1951, et publiées en France de 1963 à 1968 dans la collection « Bibliothèque rose ». Elle raconte la vie d’une famille composée du père, de la mère et de leurs trois enfants : Nicolas, Elisabeth et Marijo. Toujours joyeuse, cette famille voit toujours le bon côté des choses.
+1966 : Deux Jumelles et Deux Somnambules (Fifth Formers at St. Clare's, 1945); (nouveau titre français en 2016 : Les jumelles mènent le jeu).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Famille Tant-Mieux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La série La Famille Tant-Mieux (The Caravan Family) est constituée de six histoires rédigées entre 1945 et 1951, et publiées en France de 1963 à 1968 dans la collection « Bibliothèque rose ». Elle raconte la vie d’une famille composée du père, de la mère et de leurs trois enfants : Nicolas, Elisabeth et Marijo. Toujours joyeuse, cette famille voit toujours le bon côté des choses.
 1963 : La Famille Tant-Mieux (The Caravan Family, 1945).
 1964 : La Famille Tant-Mieux en péniche (The Saucy Jane Family, 1947).
 1967 : La Famille Tant-Mieux prend des vacances (The Seaside Family, 1950).
 1966 : La Famille Tant-Mieux à la campagne (The Buttercup Farm Family, 1951).
 1965 : La Famille Tant-Mieux en croisière (The Pole Star Family, 1950).
-1968 : La Famille Tant-Mieux en Amérique (The Queen Elisabeth Family, 1951).
-Série Félicie la souris
-La série s'intitule Mary Mouse en version originale.
+1968 : La Famille Tant-Mieux en Amérique (The Queen Elisabeth Family, 1951).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Félicie la souris</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La série s'intitule Mary Mouse en version originale.
 1981 : Félicie la souris (Mary Mouse and the Doll’s House, 1942).
 1981 : Félicie part en roulotte (Here Come Mary Mouse Again, 1947).
 1981 : La croisière de Félicie (Mary Mouse to the Rescue, 1954).
-1990 : Félicie en ballon (Mary Mouse Has a Wonderful Idea, 1959).
-Série Galopin et Polisson
-Les cinq titres de cette série, publiés en France en 1990 dans la collection Bibliothèque rose[1], sont tirés d'un unique volume intitulé The Adventures of Binkle and Flip, paru en 1938. 
+1990 : Félicie en ballon (Mary Mouse Has a Wonderful Idea, 1959).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Galopin et Polisson</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les cinq titres de cette série, publiés en France en 1990 dans la collection Bibliothèque rose, sont tirés d'un unique volume intitulé The Adventures of Binkle and Flip, paru en 1938. 
 1990 : Galopin et Polisson
 1990 : Galopin s'en tire bien
 1990 : Galopin va trop loin
 1990 : Les folles idées de Galopin
-1990 : Le Réveillon de Galopin et Polisson
-Série Jojo Lapin
-La série s'intitule Brer Rabbit en version originale.
+1990 : Le Réveillon de Galopin et Polisson</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Jojo Lapin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La série s'intitule Brer Rabbit en version originale.
 1969 : Les Aventures de Jojo Lapin (Fourfh Brer Rabbit Book, 1953).
 1970 : Jojo Lapin va à la pêche (Second Brer Rabbit Book, Part 2, 1950).
 1971 : Jojo Lapin va au marché (Sixth Brer Rabbit Book, 1955).
@@ -637,19 +993,164 @@
 1974 : Jojo Lapin joue à cache-cache (First Brer Rabbit Book. Part 2, 1948).
 1975 : Jojo Lapin fait le brave (First Brer Rabbit Book. Part 3, 1948).
 1976 : Les bons trucs de Jojo Lapin (Second Brer Rabbit Book Part 1, 1950).
-1977 : Jojo Lapin se rebiffe, 1977 (Third Brer Rabbit Book Part 2, 1952).
-Série Les Jumeaux
-1980 : Bravo les jumeaux ! (Hello Twins, 1951).
-1980 : Salut les Jumeaux !  (Here come The Twins, 1953).
-The Magic Faraway Tree
-Cette série de trois histoires raconte les aventures de quelques enfants qui accèdent à des mondes par une échelle au sommet d'un arbre magique. Un autre volume en bande dessinée a été publié en anglais. En français, ces récits sont publiés à partir de 1983 sous la forme d'une série de quatre livres intitulée La Forêt enchantée et composée de quatre titres. En 1991, la série est remaniée et comprend désormais onze titres commençant pour la plupart par « L'Arbre... ».
-Série La Forêt Enchantée
-1984 : La Forêt enchantée (The Enchanted Wood, Part 1)
+1977 : Jojo Lapin se rebiffe, 1977 (Third Brer Rabbit Book Part 2, 1952).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Les Jumeaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1980 : Bravo les jumeaux ! (Hello Twins, 1951).
+1980 : Salut les Jumeaux !  (Here come The Twins, 1953).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>The Magic Faraway Tree</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série de trois histoires raconte les aventures de quelques enfants qui accèdent à des mondes par une échelle au sommet d'un arbre magique. Un autre volume en bande dessinée a été publié en anglais. En français, ces récits sont publiés à partir de 1983 sous la forme d'une série de quatre livres intitulée La Forêt enchantée et composée de quatre titres. En 1991, la série est remaniée et comprend désormais onze titres commençant pour la plupart par « L'Arbre... ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The Magic Faraway Tree</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série La Forêt Enchantée</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1984 : La Forêt enchantée (The Enchanted Wood, Part 1)
 1985 : Rond de lune et ses amis (The Folk of the Faraway Tree)
 1985 : L’Arbre de tous les ailleurs (The Magic Faraway Tree)
-1986 : Au pays du bonhomme casseroles (The Enchanted Wood, Part 2)
-Série L'Arbre...
-1992 : L’Arbre de tous les ailleurs (The Enchanted Wood, 1939).
+1986 : Au pays du bonhomme casseroles (The Enchanted Wood, Part 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The Magic Faraway Tree</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série L'Arbre...</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1992 : L’Arbre de tous les ailleurs (The Enchanted Wood, 1939).
 1991 : L’Arbre de tous les hivers (The Enchanted Wood, Part 1, 1939).
 1991 : L’Arbre aux 1000 casseroles (The Enchanted Wood, Part 2, 1939).
 1991 : L’Arbre de bric et de broc (The Enchanted Wood, Part 2, 1939).
@@ -659,19 +1160,126 @@
 1992 : L’Arbre en péril (The Folk of the Faraway Tree, 1946).
 1992 : L’Arbre aux grandes colères (The Enchanted Wood, Part 2, 1939).
 1992 : Les Caprices de l’arbre (The Folk of the Faraway Tree, 1946).
-1992 : L’Arbre de tous les secrets (The Enchanted Wood, Part 2, 1939).
-Série Malory School
-La série Malory School (Malory Towers en version originale) relate la vie de jeunes filles dans un pensionnat. L’ensemble a été publié en France dans la collection « Bibliothèque rose ».
+1992 : L’Arbre de tous les secrets (The Enchanted Wood, Part 2, 1939).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Série Malory School</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>La série Malory School (Malory Towers en version originale) relate la vie de jeunes filles dans un pensionnat. L’ensemble a été publié en France dans la collection « Bibliothèque rose ».
 1971 : Les Filles de Malory school (First Term at Malory Towers, 1946) ; (nouveau titre français en 2012 : Malory School : La Rentrée).
 1971 : Sauvetage à Malory school (Second Form at Malory Towers, 1947) ; (nouveau titre français en 2012 : Malory School : La Tempête).
 1972 : Un cheval à Malory school (Third Year at Malory Towers, 1948) ; (nouveau titre français en 2013 : Malory School : Un pur-sang en danger).
 1974 : Réveillon à Malory School (Upper Fourth at Malory Towers, 1949) ; (nouveau titre français en 1993 : Folle soirée à Malory School et en 2013 : Malory School : La Fête secrète).
 1974 : Du théâtre à Malory School (In the Fifth at Malory Towers, 1950); (nouveau titre français en 2014 : Malory School : La Pièce de théâtre).
-1975 : Adieu à Malory School (Last Term at Malory Towers, 1951) ; (nouveau titre français en 2014 : Malory School : Les Adieux)
-Série Mystère
-La série française Mystère regroupe des titres publiés sous forme de séries séparées en version originale, ainsi que des titres isolés n'appartenant à aucune série. 
-Arthur &amp; Cie
-Cette série s'intitule Adventure series en version originale. Les personnages sont : Jacques, Henri, Denise, Lucette et leur perroquet Kiki. La série a été rééditée sous le titre Arthur et Cie à partir des années 1990, puis Arthur et Compagnie en 2015.
+1975 : Adieu à Malory School (Last Term at Malory Towers, 1951) ; (nouveau titre français en 2014 : Malory School : Les Adieux)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série française Mystère regroupe des titres publiés sous forme de séries séparées en version originale, ainsi que des titres isolés n'appartenant à aucune série. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Arthur &amp; Cie</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cette série s'intitule Adventure series en version originale. Les personnages sont : Jacques, Henri, Denise, Lucette et leur perroquet Kiki. La série a été rééditée sous le titre Arthur et Cie à partir des années 1990, puis Arthur et Compagnie en 2015.
 1960 : Le Mystère de l'île aux mouettes (The Island of Adventure, 1944), (nouveau titre français en 2015 : Arthur et Compagnie et l'Île aux mouettes).
 1961 : Le Mystère du nid d'aigle (The Castle of Adventure, 1946), (nouveau titre français en 2015 : Arthur et Compagnie au nid d'aigle).
 1962 : Le Mystère de la cascade (The Valley of Adventure, 1947), (nouveau titre français en 2015 : Arthur et Compagnie à la cascade).
@@ -679,17 +1287,93 @@
 1963 : Le Mystère de l'hélicoptère (The Mountain of Adventure, 1949), (nouveau titre français en 2015 : Arthur et Compagnie et l'Hélicoptère).
 1963 : Le Mystère du vaisseau perdu (The Ship of Adventure, 1950), (nouveau titre français en 2015 : Arthur et Compagnie et le Vaisseau perdu).
 1963 : Le Mystère du Mondial-Circus (The Circus of Adventure, 1952), (nouveau titre français en 2015 : Arthur et Compagnie au Mondial Circus).
-1964 : Le Mystère de la rivière noire (The River of Adventure, 1955), (nouveau titre français en 2015 : Arthur et Compagnie sur la rivière noire)
-Barney Mysteries
-Cette série de six titres est parue en France dans la collection Bibliothèque rose ; Le titre Le Mystère du carillon a été réédité en 1980 dans la collection Idéal-Bibliothèque. Elle raconte les aventures de Sylvain (Barney en version originale) le vagabond, et de ses amis Éric, dit Toufou (Peter dit Snubby), un orphelin, et des deux cousins de Toufou : Roger (Roger) et Nelly (Diana). Les enfants sont accompagnés du chien de Toufou : Crac (Loony en VO), et de la guenon de Sylvain : Virginie (Miranda). En version originale, le titre des romans commence toujours par la lettre « R ». 
+1964 : Le Mystère de la rivière noire (The River of Adventure, 1955), (nouveau titre français en 2015 : Arthur et Compagnie sur la rivière noire)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Barney Mysteries</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cette série de six titres est parue en France dans la collection Bibliothèque rose ; Le titre Le Mystère du carillon a été réédité en 1980 dans la collection Idéal-Bibliothèque. Elle raconte les aventures de Sylvain (Barney en version originale) le vagabond, et de ses amis Éric, dit Toufou (Peter dit Snubby), un orphelin, et des deux cousins de Toufou : Roger (Roger) et Nelly (Diana). Les enfants sont accompagnés du chien de Toufou : Crac (Loony en VO), et de la guenon de Sylvain : Virginie (Miranda). En version originale, le titre des romans commence toujours par la lettre « R ». 
 1959 : Le Mystère du vieux manoir (The Rockingdown Mystery, 1949).
 1959 : Le Mystère des gants verts (The Rilloby Fair Mystery, 1950).
 1959 : Le Mystère du carillon (The Ring O'Bells Mystery, 1951).
 1960 : Le Mystère de la roche percée (The Rubadub Mystery, 1952).
 1961 : Le Mystère de monsieur personne (The Rat-a-Tat Mystery, 1956).
-1962 : Le Mystère des voleurs volés (The Ragamuffin Mystery, 1959).
-Les Cinq Détectives
-Intitulée Five Find-Outers en version originale, la série raconte les histoires de cinq amis : Fatty, Larry, Pip, Daisy, Betsy et leur chien Foxy. En France, elle est d'abord parue dans la collection « Idéal-Bibliothèque » sous le titre de Série Mystère. À partir des années 1990, plusieurs de ces titres sont réédités dans la collection Bibliothèque rose sous le nom de Les Cinq Détectives.
+1962 : Le Mystère des voleurs volés (The Ragamuffin Mystery, 1959).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Les Cinq Détectives</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Intitulée Five Find-Outers en version originale, la série raconte les histoires de cinq amis : Fatty, Larry, Pip, Daisy, Betsy et leur chien Foxy. En France, elle est d'abord parue dans la collection « Idéal-Bibliothèque » sous le titre de Série Mystère. À partir des années 1990, plusieurs de ces titres sont réédités dans la collection Bibliothèque rose sous le nom de Les Cinq Détectives.
 1963 : Le Mystère du pavillon rose (The Mystery of the Burnt Cottage, 1943).
 1964 : Le Mystère du chat siamois (The Mystery of the Disappearing Cat, 1944).
 1964 : Le Mystère du camp de vacances (The Mystery of the Vanished Prince, 1951).
@@ -704,30 +1388,144 @@
 1969 : Le Mystère des enveloppes mauves (The Mystery of the Spiteful Letters, 1946).
 1969 : Le Mystère du caniche blanc (The Mystery of Tally-Ho Cottage, 1954).
 1970 : Le Mystère de l'ennemi sans nom (The Mystery of the Strange Messages, 1957).
-1970 : Le Mystère de la chaloupe verte (The Mystery of Banshee Towers, 1961)
-Le Cirque Galliano
-Intitulée Galliano's circus en version originale, cette série est constituée de quatre titres (trois en Angleterre). Le quatrième, un titre indépendant en Angleterre, a été ajouté à la série par Hachette pour faire partie de la série. En France, cette série est parue dans la collection Bibliothèque rose. Toutes les histoires ont pour thème le cirque. Les personnages principaux sont Jimmy et son amie Lotta, la petite écuyère.
+1970 : Le Mystère de la chaloupe verte (The Mystery of Banshee Towers, 1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Le Cirque Galliano</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Intitulée Galliano's circus en version originale, cette série est constituée de quatre titres (trois en Angleterre). Le quatrième, un titre indépendant en Angleterre, a été ajouté à la série par Hachette pour faire partie de la série. En France, cette série est parue dans la collection Bibliothèque rose. Toutes les histoires ont pour thème le cirque. Les personnages principaux sont Jimmy et son amie Lotta, la petite écuyère.
 1965 : Le Mystère de l'éléphant bleu (Mr Galliano's Circus, 1938)
 1967 : Le Mystère du chien savant (Hurrah for the Circus!, 1939)
 1967 : Le Mystère du chapeau pointu (Circus Days Again, 1942)
-1968 : Le Mystère des singes verts (Come to the Circus!, 1948)
-Série mystère[2] (Les 4 Arnaud) (Secret Series)
-Cette série est constituée de cinq titres, parus en France au début des années 1960 aux éditions ODEJ dans la collection « collection J » puis dans les années 1970 aux éditions Hachette dans la collection Bibliothèque rose avec des titres légèrement différents de ceux parus chez ODEJ.
+1968 : Le Mystère des singes verts (Come to the Circus!, 1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Série mystère[2] (Les 4 Arnaud) (Secret Series)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cette série est constituée de cinq titres, parus en France au début des années 1960 aux éditions ODEJ dans la collection « collection J » puis dans les années 1970 aux éditions Hachette dans la collection Bibliothèque rose avec des titres légèrement différents de ceux parus chez ODEJ.
 Les personnages sont Guy, Linette, et Nicole Arnaud qui sont frère et sœurs et Jean, orphelin adopté par les parents de Guy, Linette et Nicole à la fin du premier tome. À partir du deuxième tome un autre personnage central est le prince Paul, originaire du royaume de Varanie.
-1972 : Le Mystère de l'île verte / Le Secret de l'île verte[3] (The Secret Island, 1938)
-1973 : Le Mystère de la tour du guet / Le Secret de la tour du guet[4] (The Secret of Spiggy Holes, 1940).
-1974 : Le Mystère de la montagne jaune / Le Secret de la Montagne jaune[5] (The Secret Mountain, 1941).
-1975 : Le Mystère de la forêt bleue / Le Secret de la forêt bleue[6] (The Secret of Killimooin, 1943).
-1976 : Le Mystère du donjon noir / Le Secret du vieux donjon[7] (The Secret of Moon Castle, 1953)
-Titres indépendants n'appartenant à aucune série
-Autres titres publiés en France dans la série Mystère n'appartiennent pas à une série précise en Angleterre. Les personnages sont différents dans chaque livre. En France, ces titres ont d'abord paru dans la collection Bibliothèque rose puis ils ont été tous réédités sauf Le Mystère du sixième portrait dans la collection « Idéal-Bibliothèque ».
-1968 : Le Mystère du message secret[8] (The Mystery that Never Was, 1961)
-1969 : Le Mystère du flambeau d'argent[9] (The Treasure Hunters, 1940)
-1969 : Le Mystère des voisins terribles[9] (Those Dreadful Children, 1949)
-1970 : Le Mystère de la grotte aux sirènes[8] (Smuggler Ben, 1943)
-1970 : Le Mystère de la péniche[8] (The Boy Next Door, 1944)
-1972 : Le Mystère des sept coffres[10] (The Secret of Cliff Castle, 1943)
-1980 : Le Mystère du sixième portrait[11] (The Adventure of the Secret Necklace, 1954)
+1972 : Le Mystère de l'île verte / Le Secret de l'île verte (The Secret Island, 1938)
+1973 : Le Mystère de la tour du guet / Le Secret de la tour du guet (The Secret of Spiggy Holes, 1940).
+1974 : Le Mystère de la montagne jaune / Le Secret de la Montagne jaune (The Secret Mountain, 1941).
+1975 : Le Mystère de la forêt bleue / Le Secret de la forêt bleue (The Secret of Killimooin, 1943).
+1976 : Le Mystère du donjon noir / Le Secret du vieux donjon (The Secret of Moon Castle, 1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Série Mystère</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Titres indépendants n'appartenant à aucune série</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Autres titres publiés en France dans la série Mystère n'appartiennent pas à une série précise en Angleterre. Les personnages sont différents dans chaque livre. En France, ces titres ont d'abord paru dans la collection Bibliothèque rose puis ils ont été tous réédités sauf Le Mystère du sixième portrait dans la collection « Idéal-Bibliothèque ».
+1968 : Le Mystère du message secret (The Mystery that Never Was, 1961)
+1969 : Le Mystère du flambeau d'argent (The Treasure Hunters, 1940)
+1969 : Le Mystère des voisins terribles (Those Dreadful Children, 1949)
+1970 : Le Mystère de la grotte aux sirènes (Smuggler Ben, 1943)
+1970 : Le Mystère de la péniche (The Boy Next Door, 1944)
+1972 : Le Mystère des sept coffres (The Secret of Cliff Castle, 1943)
+1980 : Le Mystère du sixième portrait (The Adventure of the Secret Necklace, 1954)
 Les titres suivants n'ont pas été publiés en France :
 The children of Kidillin, 1940
 Mischief at St Rollo's, 1943
@@ -739,9 +1537,43 @@
 The Children at Green Meadows, 1954
 Holiday House, 1955
 Adventure of the Strange Ruby, 1960
-The Four Cousins, 1962
-Série Oui-Oui
-La série Oui-Oui (Noddy) est destinée plus particulièrement aux tout-petits. Elle comporte vingt-quatre titres écrits entre 1949 et 1963 en Angleterre et publiés en France à partir de 1962.
+The Four Cousins, 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Série Oui-Oui</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>La série Oui-Oui (Noddy) est destinée plus particulièrement aux tout-petits. Elle comporte vingt-quatre titres écrits entre 1949 et 1963 en Angleterre et publiés en France à partir de 1962.
 1962 : Oui-Oui au pays des jouets (Noddy Goes to Toyland, 1949).
 1962 : Oui-Oui et la Voiture Jaune (Hurrah for Little Noddy, 1950).
 1963 :Oui-Oui chauffeur de taxi (Noddy and his car, 1951).
@@ -765,97 +1597,582 @@
 1971 : Oui-Oui et son âne (Cheer up, Little Noddy, 1960).
 1971 : Oui-Oui à la fête (Noddy Goes to the Fair, 1960).
 1973 : Oui-Oui et M. Gros Minou (Mr Plod and Little Noddy, 1961).
-1973 : Oui-Oui s’envole (Noddy and the Aeroplane, 1964).
-Les Robinsons
-Intitulée The Adventurous Four Series en version originale, cette série ne compte que deux titres. Les personnages sont les frères et sœurs Tom, Mary et Jill et leur ami pêcheur Andy. En France, ces deux titres ont paru dans la collection Bibliothèque rose.
+1973 : Oui-Oui s’envole (Noddy and the Aeroplane, 1964).</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Les Robinsons</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Intitulée The Adventurous Four Series en version originale, cette série ne compte que deux titres. Les personnages sont les frères et sœurs Tom, Mary et Jill et leur ami pêcheur Andy. En France, ces deux titres ont paru dans la collection Bibliothèque rose.
 1984 : Les Robinsons de l'île perdue (The Adventurous Four, 1941).
-1985 : Une nouvelle aventure des Robinsons (The Adventurous Four again, 1947).
-Série Six cousins
-Seuls deux titres ont été écrits par l'auteur. Les personnages sont trois « cousins de ville » qui viennent habiter pendant quelques mois chez leurs « cousins des champs ». En France, les deux titres ont paru dans la collection « Idéal-Bibliothèque », et n'ont pas été réédités.
+1985 : Une nouvelle aventure des Robinsons (The Adventurous Four again, 1947).</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Série Six cousins</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Seuls deux titres ont été écrits par l'auteur. Les personnages sont trois « cousins de ville » qui viennent habiter pendant quelques mois chez leurs « cousins des champs ». En France, les deux titres ont paru dans la collection « Idéal-Bibliothèque », et n'ont pas été réédités.
 1967 : Les Six Cousins (Six Cousins at Mistletoe Farm, 1948).
-1968 : Les Six Cousins en famille (Six Cousins Again, 1950).
-Série La Ferme
-Cette série comprenant trois titres, n'a pas été publiée en France. Les personnages sont 4 frères et soeurs (Rory, Sheila, Benjy et Penny) qui quittent Londres pour aller vivre dans une ferme. Là-bas ils apprennent les secrets de la vie à la campagne.
+1968 : Les Six Cousins en famille (Six Cousins Again, 1950).</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Série La Ferme</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cette série comprenant trois titres, n'a pas été publiée en France. Les personnages sont 4 frères et soeurs (Rory, Sheila, Benjy et Penny) qui quittent Londres pour aller vivre dans une ferme. Là-bas ils apprennent les secrets de la vie à la campagne.
 The children of Cherry Tree Farm, 1940
 The children of Willow Farm, 1942
-More adventures on Willow Farm, 1943
-Autres titres
-À l'été 2016 et à l'hiver 2016, Hachette Romans publie deux recueils de nouvelles indépendants :
+More adventures on Willow Farm, 1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français, classées par série</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Autres titres</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>À l'été 2016 et à l'hiver 2016, Hachette Romans publie deux recueils de nouvelles indépendants :
 2016 : Vive les vacances ! (Enid Blyton's Holiday Stories).
 2016 : Vive Noël ! (Christmas Stories).</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Œuvres originales, classées par ordre chronologique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Années 1920
-1922
-Child Whispers
-1923
-Real Fairies: Poems
-Responsive Singing Games
-1924
-The Enid Blyton Book of Fairies
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Child Whispers</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Real Fairies: Poems
+Responsive Singing Games</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>The Enid Blyton Book of Fairies
 Songs of Gladness
 Sports and Games
 Ten Songs from 'Child Whispers', musique de Sydney Twinn
-The Zoo Book
-1925
-The Enid Blyton Book of Bunnies
-1926
-The Enid Blyton Book of Brownies
-The Bird Book
-1927
-A Book of Little Plays
+The Zoo Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>The Enid Blyton Book of Bunnies</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>The Enid Blyton Book of Brownies
+The Bird Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A Book of Little Plays
 The Play's the Thing, illustré par Alfred Bestall, musique de Alex Rowley, réédité en 1940 sous les titres Plays for Older Children et Plays for Younger Children
 Silver and Gold, illustré par Ethel Everett
 The Wonderful Adventure
-The Animal Book
-1929
-The Book Around Europe
-Enid Blyton's Nature Lessons
-Années 1930
-1930
-The Knights of the Round Table, John O'London's Children's Library
+The Animal Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>The Book Around Europe
+Enid Blyton's Nature Lessons</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>The Knights of the Round Table, John O'London's Children's Library
 Tales From the Arabian Nights, John O'London's Children's Library
 Tales of Ancient Greece, John O'London's Children's Library
 Tales of Robin Hood, John O'London's Children's Library
 Wendy Wins Through
-The Luck of the Laytons
-1933
-Cheerio!
+The Luck of the Laytons</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cheerio!
 My First Reading Book
 Read To Us
 Let's Read
 Five-minute Tales
 Letters from Bobs
-News Chronicle's Boys and Girls Annual
-1934
-Brer Rabbit Retold Old Thatch series
+News Chronicle's Boys and Girls Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Brer Rabbit Retold Old Thatch series
 The Adventures of Odysseus
 News Chronicle Boys' &amp; Girls' Story Book No 2
 Children of Other Days, Old Thatch series
@@ -870,33 +2187,223 @@
 The Strange Tale of Mr. Wumble, Old Thatch Series
 Tales of the Ancient Greeks and Persians
 Tales of the Romans
-Ten-Minute Tales
-1935
-Birds at Home, Old Thatch series
+Ten-Minute Tales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Birds at Home, Old Thatch series
 News Chronicle Boys' &amp; Girls' Story Book No 3
 The Children's Garden
 The Green Goblin Book
 Hedgerow Tales, illustré par Vere Temple
-Six Enid Blyton Plays
-1936
-News Chronicle Boys' and Girls' Story Book No. 4 
+Six Enid Blyton Plays</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>News Chronicle Boys' and Girls' Story Book No. 4 
 The Famous Jimmy, illustré par Benjamin Rabier
 Fifteen-Minute Tales
-The Yellow Fairy Book
-1937
-Adventures of the Wishing Chair, illustré par Hilda McGavin, Wishing Chair series 1
+The Yellow Fairy Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Adventures of the Wishing Chair, illustré par Hilda McGavin, Wishing Chair series 1
 News Chronicle Boys' and Girls' Story Book No. 5 
 A Book of Magic, Old Thatch series
-More Letters from Bobs
-1938
-The Adventures of Binkle and Flip, illustré par Katherine Nixon
+More Letters from Bobs</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>The Adventures of Binkle and Flip, illustré par Katherine Nixon
 Billy-Bob Tales, illustré par May Smith
 Heyo, Brer Rabbit!, illustré par Kathleen Nixon
 Mr. Galliano's Circus, Circus Series 1
 The Secret Island, illustré par E. H. Davie, Secret Series 1
-The Talking Teapot, Old Thatch series
-1939
-The Adventures of Bobs, Old Thatch series
+The Talking Teapot, Old Thatch series</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>The Adventures of Bobs, Old Thatch series
 Boys' and Girls' Circus Book
 Cameo Plays, Book 4
 Children of Other Lands, Old Thatch series
@@ -904,10 +2411,47 @@
 Hurrah for the Circus, Circus Series 2
 The Little Tree House, Josie, Click and Bun 1
 Naughty Amelia Jane!, Amelia Jane 1
-The Watchman with 100 Eyes, Old Thatch series
-Années 1940
-1940
-Birds of Our Gardens, illustré pars Ernest Aris and Roland Green
+The Watchman with 100 Eyes, Old Thatch series</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Birds of Our Gardens, illustré pars Ernest Aris and Roland Green
 Bobs Again
 The News Chronicle Boys' and Girls' Annual, illustré pars Katherine Nixon and Ernest Aris
 Boys and Girls Story Book 6, illustré par Dorothy M. Wheeler
@@ -921,17 +2465,93 @@
 Tales of Betsy-May, illustré par J. Gale Thomas
 The Treasure Hunters, publié sous le pseudonyme de Mary Pollock
 Three Boys and a Circus, publié sous le pseudonyme de Mary Pollock
-Twenty-Minute Tales
-1941
-The Adventurous Four, illustré par E. H. Davie
+Twenty-Minute Tales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>The Adventurous Four, illustré par E. H. Davie
 Adventures of Mr. Pink Whistle
 Enid Blyton's Book of the Year, illustré par Harry Rountree, music by Alec Rowley
 Five O'Clock Tales, illustré par Dorothy M. Wheeler
 The Further Adventures of Josie, Click and Bun, Josie Click and Bun 2
 The Secret Mountain, illustré par Harry Rountree, Secret Series 3
-The Twins at St. Clare's, illustré par W. Lindsay Cable, St. Clare's series 1
-1942
-Bed-Time Stories, illustré par Vernon Soper, Evans Little Books 2, publié par Evans Brothers
+The Twins at St. Clare's, illustré par W. Lindsay Cable, St. Clare's series 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bed-Time Stories, illustré par Vernon Soper, Evans Little Books 2, publié par Evans Brothers
 Brer Rabbit, illustré par Alfred Kerr, Evans Little Books 1, publié par Evans Brothers
 The Children of Willow Farm, illustré par Harry Rountree
 Circus Days Again, Circus series 2
@@ -952,9 +2572,47 @@
 Enid Blyton Readers 3, illustré par Eileen Soper
 Shadow the Sheep Dog, illustré par Lucy Gee
 Six O'Clock Tales, illustré par Dorothy M. Wheeler
-Tales of the Toys, illustré par Alfred Kerr, Evans Little Books 5, publié par Evans Brothers
-1943
-The Adventures of Scamp, publié sous le pseudonyme de Mary Pollock
+Tales of the Toys, illustré par Alfred Kerr, Evans Little Books 5, publié par Evans Brothers</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>The Adventures of Scamp, publié sous le pseudonyme de Mary Pollock
 Bimbo and Topsy, illustré par Lucy Gee
 The Children's Life of Christ, illustré par Eileen Soper
 Five Go Adventuring Again, Famous Five series 2
@@ -973,9 +2631,47 @@
 Seven O'Clock Tales, illustré par Dorothy M. Wheeler
 Smuggler Ben, publié sous le pseudonyme Mary Pollock, illustré par E. H. Davie
 Summer Term at St. Clare's, illustré par W. Lindsay Cable, St. Clare's series 3
-The Toys Come to Life, illustré par Eileen Soper
-1944
-At Appletree Farm
+The Toys Come to Life, illustré par Eileen Soper</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>At Appletree Farm
 Billy and Betty at the Seaside
 A Book of Naughty Children, illustré par Eileen Soper
 The Boy Next Door
@@ -998,9 +2694,47 @@
 Tales of Toyland
 The Three Golliwogs
 Claudine at St.Clare's, illustré par W. Lindsay Cable, St. Clare's series 5
-The Train that Lost its Way, illustré par Eileen Soper
-1945
-A Book of Magic, Old Thatch series
+The Train that Lost its Way, illustré par Eileen Soper</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>A Book of Magic, Old Thatch series
 The Blue Story Book, illustré par Eileen Soper
 The Brown Family. London to the Seaside, and Building a House, illustré pars E. and R. Buhler
 The Caravan Family, illustré par William Fyffe
@@ -1018,9 +2752,47 @@
 The Runaway Kitten, illustré par Eileen Soper, Brockhampton Enid Blyton Picture Book
 Enid Blyton's Sunny Story Book, illustré par Eileen Soper
 The Teddy Bear's Party, illustré par Eileen Soper, Little Book 5, 1989, réédité sous le titre The Night The Toys Had A Party, illustré par Susan Pearson.
-The Twins Go to Nursery-Rhyme Land, illustré par Eileen Soper, Brockhampton Enid Blyton Picture Book
-1946
-Amelia Jane Again, Amelia Jane 2
+The Twins Go to Nursery-Rhyme Land, illustré par Eileen Soper, Brockhampton Enid Blyton Picture Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Amelia Jane Again, Amelia Jane 2
 The Bad Little Monkey, illustré par Eileen Soper
 The Castle of Adventure, The Adventure Series 2
 The Children at Happy House, illustré par Kathleen Gell
@@ -1036,9 +2808,47 @@
 The Put-Em-Rights, illustré par Elizabeth Wall
 The Red Story Book, illustré par Eileen Soper
 The Surprising Caravan, illustré par Eileen Soper, Brockhampton Enid Blyton Picture Book
-The Train that Lost its Way, illustré par Eileen Soper
-1947
-The Adventurous Four Again!, illustré par Jessie Land
+The Train that Lost its Way, illustré par Eileen Soper</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>The Adventurous Four Again!, illustré par Jessie Land
 Five on Kirrin Island Again, Famous Five series 6
 The Green Story Book, illustré par Eileen Soper
 The Happy House Children Again, illustré par Kathleen Gell
@@ -1058,9 +2868,47 @@
 The Smith Family 1–3
 Enid Blyton's Treasury
 The Valley of Adventure, The Adventure Series 3
-The Very Clever Rabbit, illustré par Eileen Soper, Enid Blyton Bedtime Series
-1948
-The Adventures of Pip, illustré par Raymond Sheppard
+The Very Clever Rabbit, illustré par Eileen Soper, Enid Blyton Bedtime Series</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>The Adventures of Pip, illustré par Raymond Sheppard
 My Enid Blyton Brer Rabbit Book BR1
 Come to the Circus!(B) (titre dupliqué), illustré par Joyce M. Johnson
 Five Go Off to Camp, Famous Five series 7
@@ -1082,9 +2930,47 @@
 Tales of the Twins, illustré par Eileen Soper
 They Ran Away Together, illustré par Jeanne Farrar
 Third Year at Malory Towers, illustré par Stanley Lloyd, Malory Towers 3
-We Want a Story, illustré par George Bowe, Pitkin
-1949
-My Enid Blyton Bedside Book, Arthur Barker
+We Want a Story, illustré par George Bowe, Pitkin</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>My Enid Blyton Bedside Book, Arthur Barker
 Enid Blyton Bible Stories: Old Testament
 Enid Blyton Pictures: Old Testament
 Bluebell Story Book
@@ -1116,10 +3002,47 @@
 Tales After Supper, illustré par Eileen Soper
 Those Dreadful Children, illustré par Grace Lodge
 Enid Blyton's Tiny Tales, illustré par Eileen Soper
-Upper Fourth at Malory Towers, illustré par Stanley Lloyd, Malory Towers 4
-Années 1950
-1950
-The Astonishing Ladder and Other Stories, illustré par Eileen Sloper
+Upper Fourth at Malory Towers, illustré par Stanley Lloyd, Malory Towers 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>The Astonishing Ladder and Other Stories, illustré par Eileen Sloper
 Enid Blyton's Second Bedside Book
 Five Fall into Adventure, illustré par Eileen Sloper, Famous Five series 9
 Fifth Holiday Book
@@ -1146,9 +3069,47 @@
 Welcome, Mary Mouse, illustré par Olive Openshaw, Mary Mouse 9
 What an Adventure, illustré par Eileen Soper, Little Book 2
 The Wishing Chair Again, illustré par Hilda McGavin, Wishing Chair series 2
-The Yellow Story Book, illustré par Eileen Soper
-1951
-Enid Blyton's Third Bedside Book
+The Yellow Story Book, illustré par Eileen Soper</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Enid Blyton's Third Bedside Book
 Benny and the Princess, Pitkin Pleasure Book
 The Big Bedtime Story
 The Big Noddy Book 1
@@ -1193,9 +3154,47 @@
 The Little Spinning House, Pitkin Pleasure Book
 A Tale of Little Noddy, Noddy's House of Books 1
 Up the Faraway Tree, illustré par Dorothy Wheeler, Faraway Tree series 4
-Well Done Secret Seven, illustré par George Brook, Secret Seven series 3
-1952
-The Adventurous Four Again
+Well Done Secret Seven, illustré par George Brook, Secret Seven series 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>The Adventurous Four Again
 Enid Blyton's Animal Lover's Book, illustré par James Lucas, E. C. Mansell, Norman R. Satchel
 Enid Blyton's Fourth Bedside Book
 Big Ears Loses Some Jewels, Noddy's Ark of Books 2
@@ -1252,9 +3251,47 @@
 Tales of Green Hedges
 The Very Big Secret, illustré par Ruth Gervis
 Welcome Josie, Click and Bun!, illustré par Dorothy Wheeler, Josie Click and Bun 5
-Well Done Noddy!, Noddy Library 5
-1953
-The Animal Book, illustré par Kathleen Nixon
+Well Done Noddy!, Noddy Library 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>The Animal Book, illustré par Kathleen Nixon
 Enid Blyton's Fifth Bedside Book, illustré par Catherine Scholz
 Before I Go to Sleep
 Bible Stories
@@ -1294,9 +3331,47 @@
 The Story of Our Queen, illustré par F. Stocks May
 Tenth Tell-a-Story Book
 Visitors in the Night, illustré par Molly Brett, Brockhampton Little Books 14
-Well, Really Mr. Twiddle, illustré par Hilda McGavin
-1954
-The Adventure of the Secret Necklace, illustré par Isabel Veevers
+Well, Really Mr. Twiddle, illustré par Hilda McGavin</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>The Adventure of the Secret Necklace, illustré par Isabel Veevers
 The Adventures of Scamp, illustré par Olive Openshaw
 Animal Tales, Collins Wonder Colour Book
 Animals at Home, Old Thatch series
@@ -1353,9 +3428,47 @@
 Tales After Tea
 Three Little Lions, Little Gift Book
 What a Surprise, illustré par Molly Brett
-What Shall I Be?, Collins Wonder Colour Book
-1955
-About Silly Sammy
+What Shall I Be?, Collins Wonder Colour Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>About Silly Sammy
 About the Doll that Fell out of the Pram
 Enid Blyton's Annual (series produced by L. T. A. Robinson Ltd., some undated)
 Away Goes Sooty, illustré par Pierre Probst, Collins Wonder Book
@@ -1391,9 +3504,47 @@
 Trouble for the Twins, illustré par Eileen Soper
 The Troublesome Three, illustré par Leo
 Who Will Hold the Giant, play
-You Funny Little Noddy, Noddy Library 10
-1956
-A Day with Mary Mouse, illustré par Frederick White, Mary Mouse 16
+You Funny Little Noddy, Noddy Library 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A Day with Mary Mouse, illustré par Frederick White, Mary Mouse 16
 Be Brave, Little Noddy!, Noddy Library 13
 Enid Blyton's Eighth Bedside Book
 New Big Noddy Book 6
@@ -1416,9 +3567,47 @@
 Scamp at School, illustré par Pierre Probst
 A Story Book of Jesus, illustré par Elsie Walker
 Three Cheers Secret Seven, illustré par Burgess Sharrocks, Secret Seven series 8
-Water-Lily Story Book, illustré par Hilda Boswell and Dorothy Hall
-1957
-Enid Blyton's Annual, illustré par Gilbert Dunlop
+Water-Lily Story Book, illustré par Hilda Boswell and Dorothy Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Enid Blyton's Annual, illustré par Gilbert Dunlop
 Ninth Bedside Book
 Bom and His Magic Drumstick
 Brer Rabbit Funtime Adventures
@@ -1434,9 +3623,47 @@
 Noddy and the Tricky Teddy
 Noddy Tricks Mr. Sly
 Noddy's New Big Book 7
-Secret Seven Mystery, illustré par Burgess Sharrocks, Secret Seven series 9
-1958
-ABC with Noddy, Noddy Picture Book
+Secret Seven Mystery, illustré par Burgess Sharrocks, Secret Seven series 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC with Noddy, Noddy Picture Book
 About Amanda Going Away
 About the Wizard Who Really Was a Nuisance
 Enid Blyton's Tenth Bedside Book
@@ -1467,9 +3694,47 @@
 Noddy Painting Book
 Puzzle for the Secret Seven, illustré par Burgess Sharrocks, Secret Seven series 10
 Rumble and Chuff 1, 2, illustré par David Walsh
-You're a Good Friend, Noddy, Noddy Library 16
-1959
-Adventure Stories (réédition de Mischief at St. Rollo's et The Children of Kidillin)
+You're a Good Friend, Noddy, Noddy Library 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Adventure Stories (réédition de Mischief at St. Rollo's et The Children of Kidillin)
 Eleventh Bedside Book
 Bible Stories, New Testament Book 6 The Man by the Pool, The Poor Leper
 Big Noddy Book
@@ -1488,10 +3753,47 @@
 Noddy's Grand Adventure
 The Ragamuffin Mystery, illustré par Anyon Cook, The Barney Mystery Series 6
 Secret Seven Fireworks, illustré par Burgess Sharrocks, Secret Seven series 11
-Enid Blyton's Story Book
-Années 1960 - 1970
-1960
-The Adventure of the Strange Ruby, illustré par Roger Payne
+Enid Blyton's Story Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>The Adventure of the Strange Ruby, illustré par Roger Payne
 The Twelfth Bedside Book, Bedside Books
 Bom Goes to Magic Town, Bom series, illustré par R. Paul-Hoye
 Brer Rabbit and his Friends, Brer Rabbit series
@@ -1512,9 +3814,47 @@
 Noddy's Tall Pink Book, Noddy series
 Noddy's Tall Red Book, Noddy series
 Noddy's Tall Yellow Book
-Will the Fiddler, illustré par Grace Lodge
-1961
-The Big Enid Blyton Book
+Will the Fiddler, illustré par Grace Lodge</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>The Big Enid Blyton Book
 Bom at the Seaside, Bom series
 Bom Goes to the Circus, Bom series
 Happy Holiday, Clicky, Clicky series, illustré par Molly Brett
@@ -1523,35 +3863,442 @@
 Mr Plod and Little Noddy, Noddy Library 22
 The Mystery of Banshee Towers, The Five Find-Outers 15, illustré par Lilian Buchanan
 The Mystery That Never Was, illustré par Gilbert Dunlop
-Noddy's Toyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Noddy's Toyland Train Picture Book, Noddy Picture Book
+Shock for the Secret Seven, Secret Seven 13, illustré par Burgess Sharrocks
+Tales at Bedtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>A Day at School with Noddy, Noddy Picture Book
+Five Have a Mystery to Solve, illustré par Eileen Soper, Famous Five series 20
+Fun with Mary Mouse, illustré par R. Paul-Hoye, Mary Mouse 22
+The Four Cousins, illustré par Joan Thompson
+The Eighth Holiday Book
+Look Out Secret Seven, illustré par Burgess Shanks, Secret Seven series 14
+Noddy and the Tootles, Noddy Library 23
+Stories for Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>The Boy Who Wanted a Dog, illustré par Sally Michel
+Brer Rabbit Again, illustré par Grace Lodge
+Brer Rabbit Book, illustré par Grace Lodge
+Brer Rabbit's a Rascal, illustré par Grace Lodge
+Chimney Corner Stories
+Five Are Together Again, illustré par Eileen Soper, Famous Five series 21
+Five Have a Puzzling Time and Other Stories
+Fun for the Secret Seven, illustré par Burgess Sharrocks, Secret Seven series 15
+Noddy and the Aeroplane, Noddy Library 24
+Round the Clock Stories
+Shadow the Sheepdog
+Sunshine Book
+Tales of Brave Adventure
+Tales of Toyland</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>The Dog without a Collar
+Happy Hours Story Book
+The Hidey-Hole, illustré par Daphne Rowles
+Mary Mouse and the Little Donkey, illustré par R. Paul-Hoye, Mary Mouse 23
+My Favourite Enid Blyton Story Book
+The Enid Blyton Story Book for Fives to Sevens, illustré pars Dorothy Hall and Grace Shelton
+Storytime Book
+Fifth Tell-A-Story Book
+Sixth Tell-A-Story Book
+Seventh Tell-A-Story Book
+Eighth Tell-A-Story Book
+Ninth Tell-A-Story Book
+Tenth Tell-A-Story Book
+Tinkle-Tinkle-Jingle-Jing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>The Boy Who Came Back, illustré par Elsie Walker
+The Dog Who Would Go Digging, John and Mary 3
+Easy Reader Books 1–4
+High Adventure with Enid Blyton, John and Mary Stories
+Eleventh Holiday Book
+Learn to Count with Noddy
+Learn to Read about Animals with Noddy
+Learn to Tell Time with Noddy
+The Man Who Stopped To Help
+Noddy and His Friends Nursery Picture Book, Noddy Picture Book
+Noddy's Car
+Storyland, 1 et 2
+Tales of Long Ago, illustré par Anne et Janet Johnstone
+Fifteenth Tell-A-Story Book
+Enid Blyton's Treasure Box
+Enid Blyton's Sunshine Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Adventure for Goldie Sunshine Picture Story Book
+Annabelle's Little Thimble, Tulip Book 2
+The Dog Without a Collar Sunshine Picture Story Book
+Fairy Folk Story Book, illustré par Rene Cloke
+Fireside Tales
+The Grandpa Clock Sunshine Picture Story Book
+The Great Big Fish, John and Mary 1
+The Higgledy Piggledy Goblins, Sunshine Picture Story Book
+The High and Mighty Bear, Sunshine Picture Story Book
+How John Got His Ducklings, John and Mary
+The Lost Slippers, Tulip Book 3
+Pixieland Story Book, illustré par Rene Cloke
+Playtime Story Book 10
+Playtime Story Book 11
+Run-about's Holiday, illustré par Lilian Chivers
+Stories for Bedtime
+Stories for You
+Tales at Bedtime, illustré par Hilda McGavin
+The Three Sailors, John and Mary 5
+The Wheel That Ran Away, John and Mary</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Big Ears Board Book, Noddy Board Book
+Holiday Animal Stories
+Holiday Magic Stories
+Holiday Pixie Stories
+Holiday Toy Stories
+Noddy and his Passengers, Noddy Picture Book (title earlier)
+Noddy and the Magic Boots, Noddy Picture Book (title earlier)
+Noddy and the Noah's Ark, Noddy Picture Book
+Noddy Board Book, Noddy Board Book
+Noddy Toyland ABC
+Noddy's Aeroplane Picture Book, Noddy Picture Book
+Noddy's Funny Kite
+Pixie Tales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bedtime Annual, illustré par Jo Berryman
+Brownie Tales
+Granny's Lovely Necklace
+My First Enid Blyton Sunshine Reader
+Playtime Story Book 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Œuvres originales, classées par ordre chronologique</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Années 1960 - 1970</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>The Dog with the Long Tail, and other stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_des_œuvres_d'Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C5%93uvres_d%27Enid_Blyton</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Publications posthumes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t xml:space="preserve">The Young Adventurers series (2004), publié initialement sous le titre Riddle Series (1997) par HarperCollins.
 The Riddle of Holiday House  (ISBN 1-84135-737-5)
